--- a/medicine/Mort/Cimetière_Vagankovo/Cimetière_Vagankovo.xlsx
+++ b/medicine/Mort/Cimetière_Vagankovo/Cimetière_Vagankovo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vagankovo</t>
+          <t>Cimetière_Vagankovo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Vagankovo (en russe : Ваганьковское кладбище, Vagankovskoïe kladbichtche) est l'un des cimetières les plus grands (50 ha) et les plus connus de Moscou. Il abrite un grand nombre de sépultures de personnalités du sport et des arts, les plus célèbres étant sans doute Serge Essénine, Boulat Okoudjava et Vladimir Vyssotski. Le cimetière se trouve dans le district de  la Presnia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vagankovo</t>
+          <t>Cimetière_Vagankovo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été fondé en 1771 près du village de Novo Vagankovo, d'abord pour les victimes d'une grave épidémie de peste. Ce cimetière était jusqu'au milieu du XIXe siècle réservé aux gens modestes. À mesure que les frontières de la ville se rapprochaient, des personnalités plus éminentes y furent enterrées, surtout pendant l'ère soviétique. Une section importante réservée aux Arméniens se trouve à proximité.
 Une église servant de chapelle pour les enterrements est construite en 1824.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vagankovo</t>
+          <t>Cimetière_Vagankovo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités inhumées au cimetière Vagankovo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alexandre Abdoulov, acteur
 Viktor Avdiouchko, acteur soviétique
